--- a/PLSstatic/PLSstatic_predicted_factors_matrix_11.xlsx
+++ b/PLSstatic/PLSstatic_predicted_factors_matrix_11.xlsx
@@ -443,90 +443,90 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.420907706991968</v>
+        <v>-1.420907706991966</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.188474175931725</v>
+        <v>-4.112924357213253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.5063990210886035</v>
+        <v>-0.5063990210886026</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.6594045810200004</v>
+        <v>0.9844700692951912</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.010869087735112</v>
+        <v>1.01086908773511</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8742116283000778</v>
+        <v>-3.127852703437672</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.6814715563138283</v>
+        <v>0.6814715563138282</v>
       </c>
       <c r="B5" t="n">
-        <v>0.6393421200913332</v>
+        <v>0.4320455422917935</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7885271013357605</v>
+        <v>-0.7885271013357633</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6952652076564152</v>
+        <v>-1.859278549900989</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.05860466833245234</v>
+        <v>-0.05860466833245193</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02755118199754607</v>
+        <v>-0.9113797029307716</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7902155358033234</v>
+        <v>0.790215535803325</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7007463452922773</v>
+        <v>0.706972271541737</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3133597211774036</v>
+        <v>0.313359721177403</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3353455826189053</v>
+        <v>1.081627833807036</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1723433803118865</v>
+        <v>-0.1723433803118873</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.04687566608805686</v>
+        <v>-2.154301349311564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3418316664756653</v>
+        <v>0.3418316664756613</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242444887002667</v>
+        <v>-0.8406096601245452</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5328414683185535</v>
+        <v>0.5328414683185517</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3177795630743048</v>
+        <v>0.1656461003204004</v>
       </c>
     </row>
   </sheetData>
